--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50CD809-97E4-4AB8-B57A-E82CCCFDB4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C29E4-47EC-49D0-B8A4-21FE249647B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risposte ai moduli" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="PRF" sheetId="3" r:id="rId3"/>
+    <sheet name="EffortComprensione" sheetId="4" r:id="rId4"/>
+    <sheet name="EffortManutenzione" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="122">
   <si>
     <r>
       <t xml:space="preserve">Indica l'orario di </t>
@@ -1545,6 +1548,30 @@
   </si>
   <si>
     <t>Corrette Manutenzione</t>
+  </si>
+  <si>
+    <t>Errate  Comprensione</t>
+  </si>
+  <si>
+    <t>Errate Manutenzione</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1624,11 +1651,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1638,6 +1689,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,12 +1911,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CD21"/>
+  <dimension ref="A1:CD24"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="BZ17" sqref="BZ17"/>
+      <selection pane="bottomLeft" activeCell="BZ20" sqref="BZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3606,310 +3661,145 @@
       </c>
     </row>
     <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.38888888889050577</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.38958333333721384</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.39027777777664596</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.39097222222335404</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.39166666666278616</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.39236111110949423</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.39236111110949423</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.39305555555620231</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.39375000000291038</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0.39375000000291038</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0.3944444444423425</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0.39583333333575865</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>0.39652777777519077</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0.39722222222189885</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>0.39722222222189885</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>0.39791666666860692</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>0.39791666666860692</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>0.398611111115315</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>0.398611111115315</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW8" s="2">
-        <v>0.40138888888759539</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ8" s="2">
-        <v>0.40138888888759539</v>
-      </c>
-      <c r="BA8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>0.40208333333430346</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>0.40208333333430346</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>0.40486111110658385</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ8" s="2">
-        <v>0.40486111110658385</v>
-      </c>
-      <c r="BK8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BL8" s="2">
-        <v>0.40763888889341615</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>0.40763888889341615</v>
-      </c>
-      <c r="BP8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="BR8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>0.41111111111240461</v>
-      </c>
-      <c r="BU8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>0.41458333333139308</v>
-      </c>
-      <c r="BW8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>0.41458333333139308</v>
-      </c>
-      <c r="BZ8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>0.41944444444379769</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>109</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
     </row>
     <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>0.3944444444423425</v>
+        <v>0.38888888889050577</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="2">
-        <v>0.39722222222189885</v>
+        <v>0.38958333333721384</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.39027777777664596</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="2">
-        <v>0.40625</v>
+        <v>0.39097222222335404</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2">
-        <v>0.40694444444670808</v>
+        <v>0.39166666666278616</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N9" s="2">
-        <v>0.40902777777955635</v>
+        <v>0.39236111110949423</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.40972222221898846</v>
+        <v>0.39236111110949423</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S9" s="2">
-        <v>0.41249999999854481</v>
+        <v>0.39305555555620231</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>35</v>
@@ -3918,103 +3808,103 @@
         <v>42</v>
       </c>
       <c r="V9" s="2">
-        <v>0.41319444444525288</v>
+        <v>0.39375000000291038</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="X9" s="2">
-        <v>0.41458333333139308</v>
+        <v>0.39375000000291038</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.41527777777810115</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>48</v>
+        <v>0.3944444444423425</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.42083333333721384</v>
+        <v>0.39583333333575865</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF9" s="2">
-        <v>0.42152777777664596</v>
+        <v>0.39652777777519077</v>
       </c>
       <c r="AG9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AH9" s="2">
-        <v>0.42361111110949423</v>
+        <v>0.39722222222189885</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.42430555555620231</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>48</v>
+        <v>0.39722222222189885</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.42916666666860692</v>
+        <v>0.39791666666860692</v>
       </c>
       <c r="AN9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0.39791666666860692</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0.398611111115315</v>
+      </c>
+      <c r="AS9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP9" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0.43888888889341615</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AU9" s="2">
-        <v>0.43958333333284827</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>43</v>
+        <v>0.398611111115315</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AW9" s="2">
-        <v>0.445138888884685</v>
+        <v>0.40138888888759539</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0.445138888884685</v>
+        <v>0.40138888888759539</v>
       </c>
       <c r="BA9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="BB9" s="2">
-        <v>0.44652777777810115</v>
+        <v>0.40208333333430346</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>35</v>
@@ -4023,28 +3913,28 @@
         <v>42</v>
       </c>
       <c r="BE9" s="2">
-        <v>0.44722222222480923</v>
+        <v>0.40208333333430346</v>
       </c>
       <c r="BF9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="BG9" s="2">
-        <v>0.45069444444379769</v>
+        <v>0.40486111110658385</v>
       </c>
       <c r="BH9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BJ9" s="2">
-        <v>0.45138888889050577</v>
+        <v>0.40486111110658385</v>
       </c>
       <c r="BK9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.45277777777664596</v>
+        <v>0.40763888889341615</v>
       </c>
       <c r="BM9" s="1" t="s">
         <v>38</v>
@@ -4053,49 +3943,49 @@
         <v>39</v>
       </c>
       <c r="BO9" s="2">
-        <v>0.45277777777664596</v>
+        <v>0.40763888889341615</v>
       </c>
       <c r="BP9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BQ9" s="2">
-        <v>0.45833333333575865</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BT9" s="2">
-        <v>0.45902777777519077</v>
+        <v>0.41111111111240461</v>
       </c>
       <c r="BU9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BV9" s="2">
-        <v>0.461111111115315</v>
+        <v>0.41458333333139308</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BX9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BY9" s="2">
-        <v>0.46180555555474712</v>
-      </c>
-      <c r="BZ9" s="4" t="s">
-        <v>37</v>
+        <v>0.41458333333139308</v>
+      </c>
+      <c r="BZ9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="CA9" s="2">
-        <v>0.46388888888759539</v>
+        <v>0.41944444444379769</v>
       </c>
       <c r="CB9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="CC9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="CD9" t="s">
         <v>109</v>
@@ -4103,76 +3993,76 @@
     </row>
     <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>0.39236111110949423</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>0.3944444444423425</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="2">
-        <v>0.39375000000291038</v>
+        <v>0.39722222222189885</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
-        <v>0.3944444444423425</v>
+        <v>0.39791666666860692</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.40625</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L10" s="2">
-        <v>0.398611111115315</v>
+        <v>0.40694444444670808</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N10" s="2">
-        <v>0.40000000000145519</v>
+        <v>0.40902777777955635</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.40069444444088731</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S10" s="2">
-        <v>0.40277777778101154</v>
+        <v>0.41249999999854481</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="V10" s="2">
-        <v>0.40277777778101154</v>
+        <v>0.41319444444525288</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="X10" s="2">
-        <v>0.40416666666715173</v>
+        <v>0.41458333333139308</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>35</v>
@@ -4181,169 +4071,169 @@
         <v>36</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.40416666666715173</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>43</v>
+        <v>0.41527777777810115</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.40625</v>
+        <v>0.42083333333721384</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AF10" s="2">
-        <v>0.40763888889341615</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AH10" s="2">
-        <v>0.40902777777955635</v>
+        <v>0.42361111110949423</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK10" s="2">
-        <v>0.40902777777955635</v>
+        <v>0.42430555555620231</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AM10" s="2">
-        <v>0.41111111111240461</v>
+        <v>0.42916666666860692</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AP10" s="2">
-        <v>0.41180555555911269</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>66</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.41249999999854481</v>
+        <v>0.43888888889341615</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.41319444444525288</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>37</v>
+        <v>0.43958333333284827</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="AW10" s="2">
-        <v>0.41666666666424135</v>
+        <v>0.445138888884685</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.445138888884685</v>
       </c>
       <c r="BA10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="BB10" s="2">
-        <v>0.41944444444379769</v>
+        <v>0.44652777777810115</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BE10" s="2">
-        <v>0.42013888889050577</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>43</v>
+        <v>0.44722222222480923</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="BG10" s="2">
-        <v>0.42291666666278616</v>
+        <v>0.45069444444379769</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BJ10" s="2">
-        <v>0.4375</v>
+        <v>0.45138888889050577</v>
       </c>
       <c r="BK10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="BL10" s="2">
-        <v>0.43958333333284827</v>
+        <v>0.45277777777664596</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BN10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BO10" s="2">
-        <v>0.43958333333284827</v>
+        <v>0.45277777777664596</v>
       </c>
       <c r="BP10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BQ10" s="2">
-        <v>0.44166666666569654</v>
+        <v>0.45833333333575865</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BT10" s="2">
-        <v>0.44166666666569654</v>
+        <v>0.45902777777519077</v>
       </c>
       <c r="BU10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BV10" s="2">
-        <v>0.445138888884685</v>
+        <v>0.461111111115315</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BY10" s="2">
-        <v>0.44583333333139308</v>
-      </c>
-      <c r="BZ10" s="3" t="s">
-        <v>43</v>
+        <v>0.46180555555474712</v>
+      </c>
+      <c r="BZ10" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="CA10" s="2">
-        <v>0.4493055555576575</v>
+        <v>0.46388888888759539</v>
       </c>
       <c r="CB10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CC10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="CD10" t="s">
         <v>109</v>
@@ -4351,247 +4241,247 @@
     </row>
     <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.38888888889050577</v>
+        <v>0.39236111110949423</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="2">
-        <v>0.39305555555620231</v>
+        <v>0.39375000000291038</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2">
-        <v>0.39305555555620231</v>
+        <v>0.3944444444423425</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="2">
-        <v>0.39583333333575865</v>
+        <v>0.39791666666860692</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="2">
-        <v>0.39652777777519077</v>
+        <v>0.398611111115315</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N11" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.40000000000145519</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.40069444444088731</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S11" s="2">
-        <v>0.398611111115315</v>
+        <v>0.40277777778101154</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="V11" s="2">
-        <v>0.398611111115315</v>
+        <v>0.40277777778101154</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="X11" s="2">
-        <v>0.40000000000145519</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.40000000000145519</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AC11" s="2">
-        <v>0.40208333333430346</v>
+        <v>0.40625</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF11" s="2">
-        <v>0.40208333333430346</v>
+        <v>0.40763888889341615</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AH11" s="2">
-        <v>0.40277777778101154</v>
+        <v>0.40902777777955635</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AK11" s="2">
-        <v>0.40347222222044365</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>37</v>
+        <v>0.40902777777955635</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="AM11" s="2">
-        <v>0.40694444444670808</v>
+        <v>0.41111111111240461</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.40069444444088731</v>
+        <v>0.41180555555911269</v>
       </c>
       <c r="AQ11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.40833333333284827</v>
+        <v>0.41249999999854481</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.40833333333284827</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>53</v>
+        <v>0.41319444444525288</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AW11" s="2">
-        <v>0.41180555555911269</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0.41180555555911269</v>
+        <v>0.41736111111094942</v>
       </c>
       <c r="BA11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="BB11" s="2">
-        <v>0.413888888884685</v>
+        <v>0.41944444444379769</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="BE11" s="2">
-        <v>0.41458333333139308</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>37</v>
+        <v>0.42013888889050577</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="BG11" s="2">
-        <v>0.41597222222480923</v>
+        <v>0.42291666666278616</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BJ11" s="2">
-        <v>0.41597222222480923</v>
+        <v>0.4375</v>
       </c>
       <c r="BK11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="BL11" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.43958333333284827</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BO11" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.43958333333284827</v>
       </c>
       <c r="BP11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BQ11" s="2">
-        <v>0.41944444444379769</v>
+        <v>0.44166666666569654</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BT11" s="2">
-        <v>0.41944444444379769</v>
+        <v>0.44166666666569654</v>
       </c>
       <c r="BU11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BV11" s="2">
-        <v>0.42152777777664596</v>
+        <v>0.445138888884685</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BY11" s="2">
-        <v>0.42222222222335404</v>
+        <v>0.44583333333139308</v>
       </c>
       <c r="BZ11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="CA11" s="2">
-        <v>0.42361111110949423</v>
+        <v>0.4493055555576575</v>
       </c>
       <c r="CB11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="CC11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="CD11" t="s">
         <v>109</v>
@@ -4599,46 +4489,46 @@
     </row>
     <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>0.38958333333721384</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>0.38888888889050577</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.39305555555620231</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
-        <v>0.398611111115315</v>
+        <v>0.39305555555620231</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="2">
-        <v>0.40694444444670808</v>
+        <v>0.39583333333575865</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L12" s="2">
-        <v>0.40694444444670808</v>
+        <v>0.39652777777519077</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="2">
-        <v>0.41180555555911269</v>
+        <v>0.39791666666860692</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>41</v>
@@ -4647,28 +4537,28 @@
         <v>42</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.41319444444525288</v>
+        <v>0.39791666666860692</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S12" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.398611111115315</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V12" s="2">
-        <v>0.4180555555576575</v>
+        <v>0.398611111115315</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="X12" s="2">
-        <v>0.42291666666278616</v>
+        <v>0.40000000000145519</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>41</v>
@@ -4677,58 +4567,58 @@
         <v>42</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.42361111110949423</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>53</v>
+        <v>0.40000000000145519</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="AC12" s="2">
-        <v>0.429861111115315</v>
+        <v>0.40208333333430346</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AF12" s="2">
-        <v>0.43055555555474712</v>
+        <v>0.40208333333430346</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AH12" s="2">
-        <v>0.4375</v>
+        <v>0.40277777778101154</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AK12" s="2">
-        <v>0.4375</v>
+        <v>0.40347222222044365</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AM12" s="2">
-        <v>0.44166666666569654</v>
+        <v>0.40694444444670808</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP12" s="2">
-        <v>0.44166666666569654</v>
+        <v>0.40069444444088731</v>
       </c>
       <c r="AQ12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AR12" s="2">
-        <v>0.44305555555911269</v>
+        <v>0.40833333333284827</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>41</v>
@@ -4737,109 +4627,109 @@
         <v>42</v>
       </c>
       <c r="AU12" s="2">
-        <v>0.44305555555911269</v>
-      </c>
-      <c r="AV12" s="3" t="s">
-        <v>37</v>
+        <v>0.40833333333284827</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="AW12" s="2">
-        <v>0.44583333333139308</v>
+        <v>0.41180555555911269</v>
       </c>
       <c r="AX12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0.44583333333139308</v>
+        <v>0.41180555555911269</v>
       </c>
       <c r="BA12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="BB12" s="2">
-        <v>0.44722222222480923</v>
+        <v>0.413888888884685</v>
       </c>
       <c r="BC12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>0.41458333333139308</v>
+      </c>
+      <c r="BF12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>0.41597222222480923</v>
+      </c>
+      <c r="BH12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BD12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE12" s="2">
-        <v>0.44722222222480923</v>
-      </c>
-      <c r="BF12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>0.45138888889050577</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="BI12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BJ12" s="2">
-        <v>0.45138888889050577</v>
+        <v>0.41597222222480923</v>
       </c>
       <c r="BK12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="BL12" s="2">
-        <v>0.45208333333721384</v>
+        <v>0.41736111111094942</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BO12" s="2">
-        <v>0.45208333333721384</v>
-      </c>
-      <c r="BP12" s="4" t="s">
-        <v>37</v>
+        <v>0.41736111111094942</v>
+      </c>
+      <c r="BP12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="BQ12" s="2">
-        <v>0.45416666666278616</v>
+        <v>0.41944444444379769</v>
       </c>
       <c r="BR12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BT12" s="2">
-        <v>0.45416666666278616</v>
-      </c>
-      <c r="BU12" s="4" t="s">
-        <v>73</v>
+        <v>0.41944444444379769</v>
+      </c>
+      <c r="BU12" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="BV12" s="2">
-        <v>0.45625000000291038</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BY12" s="2">
-        <v>0.45625000000291038</v>
-      </c>
-      <c r="BZ12" s="4" t="s">
-        <v>37</v>
+        <v>0.42222222222335404</v>
+      </c>
+      <c r="BZ12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="CA12" s="2">
-        <v>0.45763888888905058</v>
+        <v>0.42361111110949423</v>
       </c>
       <c r="CB12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="CC12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="CD12" t="s">
         <v>109</v>
@@ -4847,76 +4737,76 @@
     </row>
     <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>0.39097222222335404</v>
+        <v>0.38958333333721384</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2">
-        <v>0.39236111110949423</v>
+        <v>0.39791666666860692</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
-        <v>0.39236111110949423</v>
+        <v>0.398611111115315</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2">
-        <v>0.39583333333575865</v>
+        <v>0.40694444444670808</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L13" s="2">
-        <v>0.39583333333575865</v>
+        <v>0.40694444444670808</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N13" s="2">
-        <v>0.39722222222189885</v>
+        <v>0.41180555555911269</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.39722222222189885</v>
+        <v>0.41319444444525288</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S13" s="2">
-        <v>0.40069444444088731</v>
+        <v>0.41736111111094942</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V13" s="2">
-        <v>0.40138888888759539</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>75</v>
+        <v>0.4180555555576575</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="X13" s="2">
-        <v>0.40416666666715173</v>
+        <v>0.42291666666278616</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>41</v>
@@ -4925,13 +4815,13 @@
         <v>42</v>
       </c>
       <c r="AA13" s="2">
-        <v>0.40416666666715173</v>
-      </c>
-      <c r="AB13" s="3" t="s">
+        <v>0.42361111110949423</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AC13" s="2">
-        <v>0.40763888889341615</v>
+        <v>0.429861111115315</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>41</v>
@@ -4940,359 +4830,254 @@
         <v>42</v>
       </c>
       <c r="AF13" s="2">
-        <v>0.40833333333284827</v>
+        <v>0.43055555555474712</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AH13" s="2">
-        <v>0.40972222221898846</v>
+        <v>0.4375</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK13" s="2">
-        <v>0.40972222221898846</v>
+        <v>0.4375</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AM13" s="2">
-        <v>0.41319444444525288</v>
+        <v>0.44166666666569654</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.41319444444525288</v>
+        <v>0.44166666666569654</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AR13" s="2">
-        <v>0.41597222222480923</v>
+        <v>0.44305555555911269</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AT13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AU13" s="2">
-        <v>0.41666666666424135</v>
+        <v>0.44305555555911269</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AW13" s="2">
-        <v>0.42013888889050577</v>
+        <v>0.44583333333139308</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0.42083333333721384</v>
-      </c>
-      <c r="BA13" s="4" t="s">
-        <v>51</v>
+        <v>0.44583333333139308</v>
+      </c>
+      <c r="BA13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="BB13" s="2">
-        <v>0.42500000000291038</v>
+        <v>0.44722222222480923</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BE13" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>48</v>
+        <v>0.44722222222480923</v>
+      </c>
+      <c r="BF13" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="BG13" s="2">
-        <v>0.44027777777955635</v>
+        <v>0.45138888889050577</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BJ13" s="2">
-        <v>0.44097222221898846</v>
+        <v>0.45138888889050577</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="BL13" s="2">
-        <v>0.44236111111240461</v>
+        <v>0.45208333333721384</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BN13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BO13" s="2">
-        <v>0.44305555555911269</v>
-      </c>
-      <c r="BP13" s="3" t="s">
+        <v>0.45208333333721384</v>
+      </c>
+      <c r="BP13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="BQ13" s="2">
-        <v>0.445138888884685</v>
+        <v>0.45416666666278616</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>0.45416666666278616</v>
+      </c>
+      <c r="BU13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>0.45625000000291038</v>
+      </c>
+      <c r="BW13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>0.45625000000291038</v>
+      </c>
+      <c r="BZ13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>0.45763888888905058</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC13" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="CD13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.38541666666424135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.38888888889050577</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.38888888889050577</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.39236111110949423</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.39305555555620231</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.39375000000291038</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0.39375000000291038</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.39583333333575865</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0.39583333333575865</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0.40069444444088731</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0.40069444444088731</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0.40347222222044365</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0.40416666666715173</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>0.40555555555329192</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>0.40555555555329192</v>
-      </c>
-      <c r="AL14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>0.40833333333284827</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>0.40902777777955635</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW14" s="2">
-        <v>0.41249999999854481</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ14" s="2">
-        <v>0.41180555555911269</v>
-      </c>
-      <c r="BA14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB14" s="2">
-        <v>0.413888888884685</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE14" s="2">
-        <v>0.413888888884685</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG14" s="2">
-        <v>0.41597222222480923</v>
-      </c>
-      <c r="BH14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BI14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ14" s="2">
-        <v>0.41597222222480923</v>
-      </c>
-      <c r="BK14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL14" s="2">
-        <v>0.41874999999708962</v>
-      </c>
-      <c r="BM14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO14" s="2">
-        <v>0.41874999999708962</v>
-      </c>
-      <c r="BP14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BQ14" s="2">
-        <v>0.42152777777664596</v>
-      </c>
-      <c r="BR14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BS14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>110</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="2"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="2"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
     </row>
     <row r="15" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>0.38749999999708962</v>
+        <v>0.39097222222335404</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2">
-        <v>0.38958333333721384</v>
+        <v>0.39236111110949423</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
@@ -5301,79 +5086,79 @@
         <v>36</v>
       </c>
       <c r="G15" s="2">
-        <v>0.38958333333721384</v>
+        <v>0.39236111110949423</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="2">
-        <v>0.39236111110949423</v>
+        <v>0.39583333333575865</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L15" s="2">
-        <v>0.39305555555620231</v>
+        <v>0.39583333333575865</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N15" s="2">
-        <v>0.39513888888905058</v>
+        <v>0.39722222222189885</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.39583333333575865</v>
+        <v>0.39722222222189885</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S15" s="2">
-        <v>0.39930555555474712</v>
+        <v>0.40069444444088731</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="V15" s="2">
-        <v>0.40000000000145519</v>
+        <v>0.40138888888759539</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>75</v>
       </c>
       <c r="X15" s="2">
-        <v>0.40347222222044365</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.40347222222044365</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.40833333333284827</v>
+        <v>0.40763888889341615</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF15" s="2">
         <v>0.40833333333284827</v>
@@ -5382,13 +5167,13 @@
         <v>76</v>
       </c>
       <c r="AH15" s="2">
-        <v>0.40902777777955635</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AK15" s="2">
         <v>0.40972222221898846</v>
@@ -5397,103 +5182,103 @@
         <v>37</v>
       </c>
       <c r="AM15" s="2">
-        <v>0.41111111111240461</v>
+        <v>0.41319444444525288</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.41180555555911269</v>
+        <v>0.41319444444525288</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="AR15" s="2">
-        <v>0.41249999999854481</v>
+        <v>0.41597222222480923</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.41249999999854481</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="AV15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AW15" s="2">
-        <v>0.413888888884685</v>
+        <v>0.42013888889050577</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0.413888888884685</v>
-      </c>
-      <c r="BA15" s="3" t="s">
-        <v>79</v>
+        <v>0.42083333333721384</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="BB15" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.42500000000291038</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BD15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BE15" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.4375</v>
       </c>
       <c r="BF15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BG15" s="2">
-        <v>0.42777777777519077</v>
+        <v>0.44027777777955635</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="BJ15" s="2">
-        <v>0.43472222222044365</v>
+        <v>0.44097222221898846</v>
       </c>
       <c r="BK15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="BL15" s="2">
-        <v>0.43541666666715173</v>
+        <v>0.44236111111240461</v>
       </c>
       <c r="BM15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BO15" s="2">
-        <v>0.43611111110658385</v>
+        <v>0.44305555555911269</v>
       </c>
       <c r="BP15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BQ15" s="2">
-        <v>0.43611111110658385</v>
+        <v>0.445138888884685</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="CD15" t="s">
         <v>110</v>
@@ -5501,37 +5286,37 @@
     </row>
     <row r="16" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.39097222222335404</v>
+        <v>0.38541666666424135</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2">
-        <v>0.39097222222335404</v>
+        <v>0.38888888889050577</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2">
-        <v>0.39097222222335404</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>37</v>
+        <v>0.38888888889050577</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I16" s="2">
-        <v>0.39305555555620231</v>
+        <v>0.39236111110949423</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L16" s="2">
         <v>0.39305555555620231</v>
@@ -5540,22 +5325,22 @@
         <v>55</v>
       </c>
       <c r="N16" s="2">
-        <v>0.3944444444423425</v>
+        <v>0.39375000000291038</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.39513888888905058</v>
+        <v>0.39375000000291038</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S16" s="2">
-        <v>0.39652777777519077</v>
+        <v>0.39583333333575865</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>46</v>
@@ -5564,43 +5349,43 @@
         <v>36</v>
       </c>
       <c r="V16" s="2">
-        <v>0.39652777777519077</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>80</v>
+        <v>0.39583333333575865</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="X16" s="2">
-        <v>0.39722222222189885</v>
+        <v>0.40069444444088731</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AA16" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.40069444444088731</v>
       </c>
       <c r="AB16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.40069444444088731</v>
+        <v>0.40347222222044365</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AF16" s="2">
-        <v>0.40138888888759539</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AH16" s="2">
-        <v>0.40138888888759539</v>
+        <v>0.40555555555329192</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>35</v>
@@ -5609,43 +5394,43 @@
         <v>36</v>
       </c>
       <c r="AK16" s="2">
-        <v>0.40208333333430346</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>53</v>
+        <v>0.40555555555329192</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AM16" s="2">
-        <v>0.40277777778101154</v>
+        <v>0.40833333333284827</v>
       </c>
       <c r="AN16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.40347222222044365</v>
+        <v>0.40902777777955635</v>
       </c>
       <c r="AQ16" s="3" t="s">
         <v>77</v>
       </c>
       <c r="AR16" s="2">
-        <v>0.40416666666715173</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AU16" s="2">
-        <v>0.40416666666715173</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="AV16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AW16" s="2">
-        <v>0.40555555555329192</v>
+        <v>0.41249999999854481</v>
       </c>
       <c r="AX16" s="1" t="s">
         <v>35</v>
@@ -5654,43 +5439,43 @@
         <v>36</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0.40625</v>
+        <v>0.41180555555911269</v>
       </c>
       <c r="BA16" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BB16" s="2">
-        <v>0.40625</v>
+        <v>0.413888888884685</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BE16" s="2">
-        <v>0.40625</v>
+        <v>0.413888888884685</v>
       </c>
       <c r="BF16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="BG16" s="2">
-        <v>0.40763888889341615</v>
+        <v>0.41597222222480923</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BI16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BJ16" s="2">
-        <v>0.40833333333284827</v>
+        <v>0.41597222222480923</v>
       </c>
       <c r="BK16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="BL16" s="2">
-        <v>0.40833333333284827</v>
+        <v>0.41874999999708962</v>
       </c>
       <c r="BM16" s="1" t="s">
         <v>35</v>
@@ -5699,19 +5484,19 @@
         <v>36</v>
       </c>
       <c r="BO16" s="2">
-        <v>0.40902777777955635</v>
+        <v>0.41874999999708962</v>
       </c>
       <c r="BP16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BQ16" s="2">
-        <v>0.40972222221898846</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="CD16" t="s">
         <v>110</v>
@@ -5719,211 +5504,211 @@
     </row>
     <row r="17" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>0.38888888889050577</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>0.38749999999708962</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="2">
+        <v>0.38958333333721384</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.38958333333721384</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.39236111110949423</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.39305555555620231</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="2">
         <v>0.39513888888905058</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.39513888888905058</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.39722222222189885</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.39722222222189885</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.40416666666715173</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.39583333333575865</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.39930555555474712</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.40000000000145519</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.40347222222044365</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="2">
-        <v>0.40486111110658385</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="AA17" s="2">
+        <v>0.40347222222044365</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC17" s="2">
         <v>0.40833333333284827</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V17" s="2">
+      <c r="AD17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF17" s="2">
         <v>0.40833333333284827</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0.4180555555576575</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0.41874999999708962</v>
-      </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.40902777777955635</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0.40972222221898846</v>
+      </c>
+      <c r="AL17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC17" s="2">
-        <v>0.42152777777664596</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AM17" s="2">
+        <v>0.41111111111240461</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0.41180555555911269</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0.41249999999854481</v>
+      </c>
+      <c r="AS17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF17" s="2">
-        <v>0.42152777777664596</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0.42847222222189885</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>0.43888888889341615</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP17" s="2">
-        <v>0.43958333333284827</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>0.44236111111240461</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="AU17" s="2">
-        <v>0.44236111111240461</v>
+        <v>0.41249999999854481</v>
       </c>
       <c r="AV17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.44374999999854481</v>
+        <v>0.413888888884685</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0.44444444444525288</v>
+        <v>0.413888888884685</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="BB17" s="2">
-        <v>0.44652777777810115</v>
+        <v>0.41736111111094942</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BE17" s="2">
-        <v>0.44652777777810115</v>
+        <v>0.41736111111094942</v>
       </c>
       <c r="BF17" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="BG17" s="2">
-        <v>0.44791666666424135</v>
+        <v>0.42777777777519077</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="BJ17" s="2">
-        <v>0.44861111111094942</v>
+        <v>0.43472222222044365</v>
       </c>
       <c r="BK17" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="BL17" s="2">
-        <v>0.45069444444379769</v>
+        <v>0.43541666666715173</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BN17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BO17" s="2">
-        <v>0.45069444444379769</v>
+        <v>0.43611111110658385</v>
       </c>
       <c r="BP17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BQ17" s="2">
-        <v>0.45208333333721384</v>
+        <v>0.43611111110658385</v>
       </c>
       <c r="BR17" s="1" t="s">
         <v>46</v>
@@ -5931,67 +5716,37 @@
       <c r="BS17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BT17" s="2">
-        <v>0.45208333333721384</v>
-      </c>
-      <c r="BU17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV17" s="2">
-        <v>0.45555555555620231</v>
-      </c>
-      <c r="BW17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BX17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY17" s="2">
-        <v>0.45625000000291038</v>
-      </c>
-      <c r="BZ17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA17" s="2">
-        <v>0.45763888888905058</v>
-      </c>
-      <c r="CB17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CC17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="CD17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>0.39236111110949423</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>81</v>
+        <v>0.39097222222335404</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="2">
-        <v>0.39722222222189885</v>
+        <v>0.39097222222335404</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2">
-        <v>0.39930555555474712</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>43</v>
+        <v>0.39097222222335404</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I18" s="2">
-        <v>0.40277777778101154</v>
+        <v>0.39305555555620231</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
@@ -6000,674 +5755,469 @@
         <v>36</v>
       </c>
       <c r="L18" s="2">
+        <v>0.39305555555620231</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.3944444444423425</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.39513888888905058</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.39652777777519077</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.39652777777519077</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.39722222222189885</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.39791666666860692</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0.40069444444088731</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.40138888888759539</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.40138888888759539</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0.40208333333430346</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM18" s="2">
         <v>0.40277777778101154</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.40486111110658385</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.40486111110658385</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.40763888889341615</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.40763888889341615</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>0.41249999999854481</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0.41249999999854481</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>0.41458333333139308</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>0.41458333333139308</v>
-      </c>
-      <c r="AL18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>0.41666666666424135</v>
-      </c>
       <c r="AN18" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.41736111111094942</v>
+        <v>0.40347222222044365</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AR18" s="2">
-        <v>0.41874999999708962</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AU18" s="2">
-        <v>0.41874999999708962</v>
+        <v>0.40416666666715173</v>
       </c>
       <c r="AV18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AW18" s="2">
-        <v>0.41944444444379769</v>
+        <v>0.40555555555329192</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0.41944444444379769</v>
-      </c>
-      <c r="BA18" s="4" t="s">
-        <v>59</v>
+        <v>0.40625</v>
+      </c>
+      <c r="BA18" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="BB18" s="2">
-        <v>0.42152777777664596</v>
+        <v>0.40625</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BD18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="BE18" s="2">
-        <v>0.42152777777664596</v>
+        <v>0.40625</v>
       </c>
       <c r="BF18" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="BG18" s="2">
-        <v>0.42430555555620231</v>
+        <v>0.40763888889341615</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BI18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BJ18" s="2">
-        <v>0.42500000000291038</v>
+        <v>0.40833333333284827</v>
       </c>
       <c r="BK18" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="BL18" s="2">
-        <v>0.42777777777519077</v>
+        <v>0.40833333333284827</v>
       </c>
       <c r="BM18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="BO18" s="2">
-        <v>0.43888888889341615</v>
+        <v>0.40902777777955635</v>
       </c>
       <c r="BP18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BQ18" s="2">
-        <v>0.43958333333284827</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT18" s="2">
-        <v>0.44027777777955635</v>
-      </c>
-      <c r="BU18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV18" s="2">
-        <v>0.44097222221898846</v>
-      </c>
-      <c r="BW18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BX18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY18" s="2">
-        <v>0.44166666666569654</v>
-      </c>
-      <c r="BZ18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA18" s="2">
-        <v>0.44444444444525288</v>
-      </c>
-      <c r="CB18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CC18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="CD18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.39236111110949423</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.40972222221898846</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.41319444444525288</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.413888888884685</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.42777777777519077</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.43125000000145519</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.43472222222044365</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.43819444444670808</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0.44444444444525288</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0.44583333333139308</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>0.44722222222480923</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>0.44791666666424135</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>0.4569444444423425</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK19" s="2">
-        <v>0.4569444444423425</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>0.45902777777519077</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0.45972222222189885</v>
-      </c>
-      <c r="AQ19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0.46388888888759539</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU19" s="2">
-        <v>0.46388888888759539</v>
-      </c>
-      <c r="AV19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW19" s="2">
-        <v>0.46805555555329192</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ19" s="2">
-        <v>0.46805555555329192</v>
-      </c>
-      <c r="BA19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB19" s="2">
-        <v>0.47013888889341615</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE19" s="2">
-        <v>0.47013888889341615</v>
-      </c>
-      <c r="BF19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG19" s="2">
-        <v>0.47222222221898846</v>
-      </c>
-      <c r="BH19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ19" s="2">
-        <v>0.47222222221898846</v>
-      </c>
-      <c r="BK19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL19" s="2">
-        <v>0.47430555555911269</v>
-      </c>
-      <c r="BM19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO19" s="2">
-        <v>0.47430555555911269</v>
-      </c>
-      <c r="BP19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BQ19" s="2">
-        <v>0.47499999999854481</v>
-      </c>
-      <c r="BR19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BS19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT19" s="2">
-        <v>0.47569444444525288</v>
-      </c>
-      <c r="BU19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV19" s="2">
-        <v>0.47708333333139308</v>
-      </c>
-      <c r="BW19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BX19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY19" s="2">
-        <v>0.47708333333139308</v>
-      </c>
-      <c r="BZ19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA19" s="2">
-        <v>0.47847222222480923</v>
-      </c>
-      <c r="CB19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CC19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD19" t="s">
-        <v>111</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
     </row>
     <row r="20" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>0.39027777777664596</v>
+        <v>0.38888888889050577</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2">
-        <v>0.39375000000291038</v>
+        <v>0.39513888888905058</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2">
-        <v>0.39375000000291038</v>
+        <v>0.39513888888905058</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="2">
-        <v>0.39930555555474712</v>
+        <v>0.39722222222189885</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.39722222222189885</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.40416666666715173</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.39930555555474712</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.40138888888759539</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.40138888888759539</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>43</v>
+        <v>0.40486111110658385</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="S20" s="2">
-        <v>0.40555555555329192</v>
+        <v>0.40833333333284827</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="V20" s="2">
-        <v>0.40555555555329192</v>
+        <v>0.40833333333284827</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="X20" s="2">
-        <v>0.40694444444670808</v>
+        <v>0.4180555555576575</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA20" s="2">
-        <v>0.40694444444670808</v>
+        <v>0.41874999999708962</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AC20" s="2">
-        <v>0.41458333333139308</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AF20" s="2">
-        <v>0.41458333333139308</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AH20" s="2">
-        <v>0.4180555555576575</v>
+        <v>0.42847222222189885</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK20" s="2">
-        <v>0.41874999999708962</v>
+        <v>0.4375</v>
       </c>
       <c r="AL20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AM20" s="2">
-        <v>0.42152777777664596</v>
+        <v>0.43888888889341615</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.42152777777664596</v>
+        <v>0.43958333333284827</v>
       </c>
       <c r="AQ20" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AR20" s="2">
-        <v>0.42291666666278616</v>
+        <v>0.44236111111240461</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AU20" s="2">
-        <v>0.42291666666278616</v>
+        <v>0.44236111111240461</v>
       </c>
       <c r="AV20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AW20" s="2">
-        <v>0.42777777777519077</v>
+        <v>0.44374999999854481</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0.42777777777519077</v>
+        <v>0.44444444444525288</v>
       </c>
       <c r="BA20" s="3" t="s">
         <v>85</v>
       </c>
       <c r="BB20" s="2">
-        <v>0.43611111110658385</v>
+        <v>0.44652777777810115</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BE20" s="2">
-        <v>0.43611111110658385</v>
+        <v>0.44652777777810115</v>
       </c>
       <c r="BF20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="BG20" s="2">
-        <v>0.43888888889341615</v>
+        <v>0.44791666666424135</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="BJ20" s="2">
-        <v>0.43888888889341615</v>
+        <v>0.44861111111094942</v>
       </c>
       <c r="BK20" s="3" t="s">
         <v>86</v>
       </c>
       <c r="BL20" s="2">
-        <v>0.44027777777955635</v>
+        <v>0.45069444444379769</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BO20" s="2">
-        <v>0.44027777777955635</v>
+        <v>0.45069444444379769</v>
       </c>
       <c r="BP20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0.44097222221898846</v>
+        <v>0.45208333333721384</v>
       </c>
       <c r="BR20" s="1" t="s">
         <v>46</v>
@@ -6676,51 +6226,51 @@
         <v>47</v>
       </c>
       <c r="BT20" s="2">
-        <v>0.44097222221898846</v>
+        <v>0.45208333333721384</v>
       </c>
       <c r="BU20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BV20" s="2">
-        <v>0.44166666666569654</v>
+        <v>0.45555555555620231</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="BY20" s="2">
-        <v>0.44166666666569654</v>
+        <v>0.45625000000291038</v>
       </c>
       <c r="BZ20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="CA20" s="2">
-        <v>0.44305555555911269</v>
+        <v>0.45763888888905058</v>
       </c>
       <c r="CB20" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="CC20" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="CD20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>0.38888888889050577</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>0.39236111110949423</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="2">
-        <v>0.39513888888905058</v>
+        <v>0.39722222222189885</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>35</v>
@@ -6729,193 +6279,193 @@
         <v>42</v>
       </c>
       <c r="G21" s="2">
-        <v>0.39583333333575865</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>37</v>
+        <v>0.39930555555474712</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I21" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.40277777778101154</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="2">
-        <v>0.39791666666860692</v>
+        <v>0.40277777778101154</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="2">
-        <v>0.40416666666715173</v>
+        <v>0.40486111110658385</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.40416666666715173</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>43</v>
+        <v>0.40486111110658385</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="S21" s="2">
-        <v>0.41041666666569654</v>
+        <v>0.40763888889341615</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V21" s="2">
-        <v>0.41111111111240461</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>56</v>
+        <v>0.40763888889341615</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="X21" s="2">
-        <v>0.41666666666424135</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA21" s="2">
-        <v>0.41666666666424135</v>
+        <v>0.40972222221898846</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.41944444444379769</v>
+        <v>0.41249999999854481</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AF21" s="2">
-        <v>0.41944444444379769</v>
+        <v>0.41249999999854481</v>
       </c>
       <c r="AG21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AH21" s="2">
-        <v>0.42361111110949423</v>
+        <v>0.41458333333139308</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AK21" s="2">
-        <v>0.42361111110949423</v>
+        <v>0.41458333333139308</v>
       </c>
       <c r="AL21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AM21" s="2">
-        <v>0.42708333333575865</v>
+        <v>0.41666666666424135</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.4375</v>
+        <v>0.41736111111094942</v>
       </c>
       <c r="AQ21" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AR21" s="2">
-        <v>0.43958333333284827</v>
+        <v>0.41874999999708962</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AU21" s="2">
-        <v>0.43958333333284827</v>
+        <v>0.41874999999708962</v>
       </c>
       <c r="AV21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AW21" s="2">
-        <v>0.44236111111240461</v>
+        <v>0.41944444444379769</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0.44236111111240461</v>
-      </c>
-      <c r="BA21" s="3" t="s">
-        <v>85</v>
+        <v>0.41944444444379769</v>
+      </c>
+      <c r="BA21" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="BB21" s="2">
-        <v>0.445138888884685</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BE21" s="2">
-        <v>0.445138888884685</v>
+        <v>0.42152777777664596</v>
       </c>
       <c r="BF21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="BG21" s="2">
-        <v>0.44791666666424135</v>
+        <v>0.42430555555620231</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="BI21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BJ21" s="2">
-        <v>0.44791666666424135</v>
+        <v>0.42500000000291038</v>
       </c>
       <c r="BK21" s="3" t="s">
         <v>86</v>
       </c>
       <c r="BL21" s="2">
-        <v>0.44999999999708962</v>
+        <v>0.42777777777519077</v>
       </c>
       <c r="BM21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BO21" s="2">
-        <v>0.44999999999708962</v>
+        <v>0.43888888889341615</v>
       </c>
       <c r="BP21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BQ21" s="2">
-        <v>0.45069444444379769</v>
+        <v>0.43958333333284827</v>
       </c>
       <c r="BR21" s="1" t="s">
         <v>46</v>
@@ -6924,36 +6474,780 @@
         <v>47</v>
       </c>
       <c r="BT21" s="2">
-        <v>0.45138888889050577</v>
+        <v>0.44027777777955635</v>
       </c>
       <c r="BU21" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BV21" s="2">
-        <v>0.45347222222335404</v>
+        <v>0.44097222221898846</v>
       </c>
       <c r="BW21" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="BY21" s="2">
-        <v>0.45347222222335404</v>
+        <v>0.44166666666569654</v>
       </c>
       <c r="BZ21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="CA21" s="2">
+        <v>0.44444444444525288</v>
+      </c>
+      <c r="CB21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.39236111110949423</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.40972222221898846</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.40972222221898846</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.41319444444525288</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.413888888884685</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.42777777777519077</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.43125000000145519</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.43472222222044365</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.43819444444670808</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0.44444444444525288</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0.44583333333139308</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.44722222222480923</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0.44791666666424135</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0.4569444444423425</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0.4569444444423425</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>0.45902777777519077</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>0.45972222222189885</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>0.46388888888759539</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>0.46388888888759539</v>
+      </c>
+      <c r="AV22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>0.46805555555329192</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0.46805555555329192</v>
+      </c>
+      <c r="BA22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0.47013888889341615</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0.47013888889341615</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="BH22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0.47222222221898846</v>
+      </c>
+      <c r="BK22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0.47430555555911269</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>0.47430555555911269</v>
+      </c>
+      <c r="BP22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>0.47499999999854481</v>
+      </c>
+      <c r="BR22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>0.47569444444525288</v>
+      </c>
+      <c r="BU22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>0.47708333333139308</v>
+      </c>
+      <c r="BW22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>0.47708333333139308</v>
+      </c>
+      <c r="BZ22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>0.47847222222480923</v>
+      </c>
+      <c r="CB22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.39027777777664596</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.39375000000291038</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.39375000000291038</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.39930555555474712</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.39930555555474712</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.40138888888759539</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.40138888888759539</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.40555555555329192</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.40555555555329192</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.40694444444670808</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0.40694444444670808</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0.41458333333139308</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0.41458333333139308</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0.4180555555576575</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>0.41874999999708962</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0.42152777777664596</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>0.42152777777664596</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>0.42291666666278616</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>0.42291666666278616</v>
+      </c>
+      <c r="AV23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>0.42777777777519077</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>0.42777777777519077</v>
+      </c>
+      <c r="BA23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>0.43611111110658385</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>0.43611111110658385</v>
+      </c>
+      <c r="BF23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>0.43888888889341615</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>0.43888888889341615</v>
+      </c>
+      <c r="BK23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>0.44027777777955635</v>
+      </c>
+      <c r="BM23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>0.44027777777955635</v>
+      </c>
+      <c r="BP23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ23" s="2">
+        <v>0.44097222221898846</v>
+      </c>
+      <c r="BR23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>0.44097222221898846</v>
+      </c>
+      <c r="BU23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV23" s="2">
+        <v>0.44166666666569654</v>
+      </c>
+      <c r="BW23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BY23" s="2">
+        <v>0.44166666666569654</v>
+      </c>
+      <c r="BZ23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA23" s="2">
+        <v>0.44305555555911269</v>
+      </c>
+      <c r="CB23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.38888888889050577</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.39513888888905058</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.39583333333575865</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.39791666666860692</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.39791666666860692</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.40416666666715173</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.40416666666715173</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.41041666666569654</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.41111111111240461</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0.41944444444379769</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0.41944444444379769</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0.42361111110949423</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>0.42361111110949423</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>0.42708333333575865</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>0.43958333333284827</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>0.43958333333284827</v>
+      </c>
+      <c r="AV24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>0.44236111111240461</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>0.44236111111240461</v>
+      </c>
+      <c r="BA24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>0.445138888884685</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>0.445138888884685</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>0.44791666666424135</v>
+      </c>
+      <c r="BH24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>0.44791666666424135</v>
+      </c>
+      <c r="BK24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>0.44999999999708962</v>
+      </c>
+      <c r="BM24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>0.44999999999708962</v>
+      </c>
+      <c r="BP24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ24" s="2">
+        <v>0.45069444444379769</v>
+      </c>
+      <c r="BR24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>0.45138888889050577</v>
+      </c>
+      <c r="BU24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>0.45347222222335404</v>
+      </c>
+      <c r="BW24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY24" s="2">
+        <v>0.45347222222335404</v>
+      </c>
+      <c r="BZ24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA24" s="2">
         <v>0.45486111110949423</v>
       </c>
-      <c r="CB21" s="1" t="s">
+      <c r="CB24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CC21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD21" t="s">
+      <c r="CC24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6969,7 +7263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176104F9-D9A5-412C-A5FD-1C2FDB27340C}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -7258,4 +7552,1588 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0083A826-989C-400D-AB02-5AF6ED153459}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54987945-83AA-45C3-9E26-39F3C4D25648}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>12</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>3</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC049385-8644-4163-9A5A-4D581F5B3438}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>2</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>2</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dazza\Università\I ANNO M\CodeSmell-DesignPattern-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C29E4-47EC-49D0-B8A4-21FE249647B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F17A120-442A-4FC1-AAF9-DCFCD8DE7290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risposte ai moduli" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="PRF" sheetId="3" r:id="rId3"/>
-    <sheet name="EffortComprensione" sheetId="4" r:id="rId4"/>
-    <sheet name="EffortManutenzione" sheetId="5" r:id="rId5"/>
+    <sheet name="Foglio2" sheetId="7" r:id="rId3"/>
+    <sheet name="PRF" sheetId="3" r:id="rId4"/>
+    <sheet name="EffortComprensione" sheetId="4" r:id="rId5"/>
+    <sheet name="EffortManutenzione" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="123">
   <si>
     <r>
       <t xml:space="preserve">Indica l'orario di </t>
@@ -1572,13 +1573,16 @@
   </si>
   <si>
     <t>S6</t>
+  </si>
+  <si>
+    <t>Gruppo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1612,6 +1616,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1679,7 +1691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1689,13 +1701,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1913,18 +1924,24 @@
   </sheetPr>
   <dimension ref="A1:CD24"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="BZ20" sqref="BZ20"/>
+      <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="87" width="18.6640625" customWidth="1"/>
+    <col min="1" max="73" width="18.7109375" customWidth="1"/>
+    <col min="74" max="74" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="32" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="46.42578125" customWidth="1"/>
+    <col min="79" max="87" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -2172,7 +2189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -2420,7 +2437,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -2668,7 +2685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -2916,7 +2933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -3164,7 +3181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -3412,7 +3429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -3743,7 +3760,7 @@
       <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
     </row>
-    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -4239,7 +4256,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -4487,7 +4504,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -4735,7 +4752,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -4983,7 +5000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -5066,7 +5083,7 @@
       <c r="CB14" s="1"/>
       <c r="CC14" s="1"/>
     </row>
-    <row r="15" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5502,7 +5519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -5720,7 +5737,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -5938,7 +5955,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -6011,7 +6028,7 @@
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
     </row>
-    <row r="20" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -6259,7 +6276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -6507,7 +6524,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -6755,7 +6772,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7003,7 +7020,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -7264,12 +7281,16 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
@@ -7277,7 +7298,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -7285,7 +7306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7293,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -7301,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7309,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7317,7 +7338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7325,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7333,7 +7354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7341,7 +7362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>112</v>
       </c>
@@ -7349,7 +7370,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7357,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7365,7 +7386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7373,7 +7394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -7381,7 +7402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7389,7 +7410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7397,7 +7418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7405,7 +7426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -7413,7 +7434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
@@ -7421,7 +7442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7429,7 +7450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7437,7 +7458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7445,7 +7466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7453,7 +7474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -7461,7 +7482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7469,7 +7490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -7477,7 +7498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -7485,7 +7506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7493,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7501,7 +7522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7509,7 +7530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7517,7 +7538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -7525,7 +7546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -7533,7 +7554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -7541,7 +7562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -7555,16 +7576,394 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612085DB-759F-44E9-94DA-017332D43968}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0083A826-989C-400D-AB02-5AF6ED153459}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
@@ -7578,7 +7977,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -7592,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -7606,7 +8005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -7620,7 +8019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7634,7 +8033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7648,7 +8047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7662,7 +8061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>112</v>
       </c>
@@ -7676,77 +8075,77 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>112</v>
       </c>
@@ -7760,63 +8159,63 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
@@ -7830,73 +8229,73 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>1</v>
       </c>
     </row>
@@ -7905,7 +8304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54987945-83AA-45C3-9E26-39F3C4D25648}">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -7913,29 +8312,29 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -7955,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7975,7 +8374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7995,7 +8394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8015,7 +8414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8035,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8055,7 +8454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8075,7 +8474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8095,421 +8494,421 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>11</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="7">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="D29" s="7">
-        <v>3</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="7">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
         <v>9</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>3</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>3</v>
-      </c>
-      <c r="B34" s="7">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="7">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>3</v>
       </c>
     </row>
@@ -8518,37 +8917,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC049385-8644-4163-9A5A-4D581F5B3438}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -8568,7 +8967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8588,7 +8987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8608,7 +9007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8628,7 +9027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -8648,7 +9047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8668,7 +9067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8688,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8708,430 +9107,423 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="7">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>3</v>
-      </c>
-      <c r="B26" s="7">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>3</v>
-      </c>
-      <c r="B28" s="7">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>8</v>
       </c>
-      <c r="E28" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>11</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
